--- a/biology/Histoire de la zoologie et de la botanique/Thomas_Risley_Odhiambo/Thomas_Risley_Odhiambo.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Thomas_Risley_Odhiambo/Thomas_Risley_Odhiambo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le professeur Thomas Risley Odhiambo, né le 4 février 1931 à Mombasa et mort le 26 mai 2003 à Nairobi, est un entomologiste kényan surtout connu pour ses recherches sur le contrôle des insectes en milieu agraire par des méthodes naturelles.
 </t>
@@ -513,13 +525,88 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Vie privée
-Thomas Odhiambo est né le 4 février 1931 à Mombasa. Il est le premier enfant de Japheth Nandy (un employé de la Compagnie des télégraphes) et de Lorna Akwirry Nandy. Après sa naissance, ses parents retournent dans leur village natal de Mur-Ng'iya (10 km à l'est de Siaya dans la Circonscription électorale d'East Alego). Le 30 juin 1956, il se marie une première fois avec Jerusha Nereah Auma à l'église Sint Stephens de Kisumu.
+          <t>Vie privée</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Thomas Odhiambo est né le 4 février 1931 à Mombasa. Il est le premier enfant de Japheth Nandy (un employé de la Compagnie des télégraphes) et de Lorna Akwirry Nandy. Après sa naissance, ses parents retournent dans leur village natal de Mur-Ng'iya (10 km à l'est de Siaya dans la Circonscription électorale d'East Alego). Le 30 juin 1956, il se marie une première fois avec Jerusha Nereah Auma à l'église Sint Stephens de Kisumu.
 Il est décédé, consécutivement à un cancer du foie, le 26 mai 2003 à Nairobi.
-Études
-Après sa scolarité fondamentale et ses études secondaires à la Catholic Maseno school, il poursuit, entre 1950 et 1953, un cycle d'études universitaires en biologie au Makerere University College de Kampala. En 1959, après 4 ans de fonction en tant qu'entomologiste au Ministère ougandais de l'agriculture, il affine ses connaissances à l'université de Cambridge avec une licence en sciences naturelles en 1962 puis un doctorat en physiologie de l'insecte en 1965.
-Carrière
-Dès 1965, il obtient une chaire en zoologie à l'University of East Africa (campus de Nairobi).
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Thomas_Risley_Odhiambo</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Risley_Odhiambo</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Études</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Après sa scolarité fondamentale et ses études secondaires à la Catholic Maseno school, il poursuit, entre 1950 et 1953, un cycle d'études universitaires en biologie au Makerere University College de Kampala. En 1959, après 4 ans de fonction en tant qu'entomologiste au Ministère ougandais de l'agriculture, il affine ses connaissances à l'université de Cambridge avec une licence en sciences naturelles en 1962 puis un doctorat en physiologie de l'insecte en 1965.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Thomas_Risley_Odhiambo</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Thomas_Risley_Odhiambo</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dès 1965, il obtient une chaire en zoologie à l'University of East Africa (campus de Nairobi).
 En 1970, il crée et prend la direction de la faculté d'entomologie à l'University of Nairobi et devient le 1er Doyen de la faculté d'agronomie de cette même université.
 Cette même année 1970, il fonde et prend la direction (jusqu'en 1994) de l' International Centre of Insect Physiology and Ecology (ICIPE) (« Centre international de la physiologie de l'insecte et de l'écologie ») à Nairobi.
 Il aide aussi à établir plusieurs établissements d'études scientifiques :
@@ -533,65 +620,69 @@
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Thomas_Risley_Odhiambo</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_Risley_Odhiambo</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Récompenses</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Médaille Albert Einstein (1979);
 Gold Mercury International Award (1982);
 Gold Medal Award de l'International Congress of Plant Protection (1983);
-Docteur honoris causa en science de l'université d'Oslo (1986)[3];
-Africa Prize for Leadership conjointement avec Abdou Diouf du Sénégal (1987)[2].</t>
+Docteur honoris causa en science de l'université d'Oslo (1986);
+Africa Prize for Leadership conjointement avec Abdou Diouf du Sénégal (1987).</t>
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>Thomas_Risley_Odhiambo</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Histoire de la zoologie et de la botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Thomas_Risley_Odhiambo</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Ouvrages didactiques</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Il est l'auteur ou coauteur de plus de 160 publications scientifiques. Citons :
 Land-Use Literacy for Sustainable Food Production in Africa, 1994 ;
